--- a/seller/app/modules/product/template/food_and_beverages.xlsx
+++ b/seller/app/modules/product/template/food_and_beverages.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>productCode</t>
   </si>
@@ -19,6 +19,9 @@
     <t>productName</t>
   </si>
   <si>
+    <t>basePrice</t>
+  </si>
+  <si>
     <t>MRP</t>
   </si>
   <si>
@@ -37,6 +40,9 @@
     <t>productSubcategory1</t>
   </si>
   <si>
+    <t>customizationGroupId</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -70,7 +76,7 @@
     <t>returnWindow</t>
   </si>
   <si>
-    <t>isVegetarian</t>
+    <t>vegNonVeg</t>
   </si>
   <si>
     <t>manufacturerName</t>
@@ -79,18 +85,15 @@
     <t>manufacturedDate</t>
   </si>
   <si>
-    <t>nutritionalInfo</t>
-  </si>
-  <si>
-    <t>additiveInfo</t>
-  </si>
-  <si>
     <t>instructions</t>
   </si>
   <si>
     <t>isCancellable</t>
   </si>
   <si>
+    <t>cancelWindow</t>
+  </si>
+  <si>
     <t>longDescription</t>
   </si>
   <si>
@@ -103,24 +106,6 @@
     <t>images</t>
   </si>
   <si>
-    <t>manufacturerOrPackerName</t>
-  </si>
-  <si>
-    <t>manufacturerOrPackerAddress</t>
-  </si>
-  <si>
-    <t>commonOrGenericNameOfCommodity</t>
-  </si>
-  <si>
-    <t>monthYearOfManufacturePackingImport</t>
-  </si>
-  <si>
-    <t>importerFSSAILicenseNo</t>
-  </si>
-  <si>
-    <t>brandOwnerFSSAILicenseNo</t>
-  </si>
-  <si>
     <t>data import instructions</t>
   </si>
   <si>
@@ -142,31 +127,16 @@
     <t>Kilogram</t>
   </si>
   <si>
-    <t>100 kg</t>
-  </si>
-  <si>
-    <t>12 cm</t>
-  </si>
-  <si>
-    <t>1 cm</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>PT30M</t>
+    <t>VEG</t>
   </si>
   <si>
     <t>Parle</t>
   </si>
   <si>
-    <t>12/1/2023</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>info</t>
+    <t>2023/11/05</t>
   </si>
   <si>
     <t>No</t>
@@ -176,26 +146,11 @@
   </si>
   <si>
     <t>https://media.wired.com/photos/63b8d0a771c6b526845f15a6/master/pass/CES-2023-PEUGEOT_INCEPTION_CONCEPT_2301CN202.jpg,https://media.wired.com/photos/63b8d0a771c6b526845f15a6/master/pass/CES-2023-PEUGEOT_INCEPTION_CONCEPT_2301CN202.jpg</t>
-  </si>
-  <si>
-    <t>IRCTC</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>11/23</t>
   </si>
   <si>
     <t>1. images should be a public url accessible over internet
 2. maxAllowedQty should not be 0
 3. all fields are mandatory as of now</t>
-  </si>
-  <si>
-    <t>Mango Cake</t>
-  </si>
-  <si>
-    <t>Cakes</t>
   </si>
 </sst>
 </file>
@@ -237,17 +192,40 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -486,8 +464,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="8" max="8" width="22.63"/>
-    <col customWidth="1" min="11" max="11" width="16.5"/>
+    <col customWidth="1" min="9" max="10" width="22.63"/>
+    <col customWidth="1" min="13" max="13" width="16.5"/>
+    <col customWidth="1" min="23" max="23" width="24.75"/>
+    <col customWidth="1" min="24" max="24" width="21.0"/>
+    <col customWidth="1" min="32" max="32" width="26.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -497,7 +478,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -518,7 +499,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -554,13 +535,13 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -569,7 +550,7 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
@@ -587,282 +568,139 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="9">
+        <v>400.0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>12345.0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="O2" s="8">
+        <v>100.0</v>
+      </c>
+      <c r="P2" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="R2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="S2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="3">
-        <v>12345.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="U2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="V2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="W2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="X2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="3">
+      <c r="Y2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="12">
         <v>1.0</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="AB2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="AC2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="AF2" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>9.87654321234567E14</v>
-      </c>
-      <c r="AJ2" s="3">
-        <v>9.87654321234567E14</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="3">
-        <v>12345.0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI3" s="3">
-        <v>9.87654321234567E14</v>
-      </c>
-      <c r="AJ3" s="3">
-        <v>9.87654321234567E14</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K2:K3">
+  <conditionalFormatting sqref="M2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E3">
+  <conditionalFormatting sqref="E2:F2">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="I2">
     <cfRule type="notContainsBlanks" dxfId="1" priority="3">
-      <formula>LEN(TRIM(H2))&gt;0</formula>
+      <formula>LEN(TRIM(I2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2">
       <formula1>"0,5,12,18,28"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R2:R3 T2:T3 Z2:Z3 AB2:AB3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2">
+      <formula1>"Baklava,Bao,Barbecue,Biriyani,Bread,Burger,Cakes,Chaat,Cheesecakes,Chicken,Chicekn Wings,Chips,Coffee,Cookies,Crepes,Dal,Desserts,Dhokla,Dosa,Doughnuts,Eggs,Energy Drinks,Falafel,Fresh Juice,Fries,Ice Cream,Idli,Kabab,Kachori,Kulfi,Lassi,Meal Bowl,Mezze,M"&amp;"ithai,Momos,Mutton,Nachos,Noodles,Pakodas,Pancakes,Paneer,Pasta,Pastries,Pie,Pizza,Poha,Raita,Rice,Rolls,Roti,Salad,Samosa,Sandwich,Seafood,Shakes and Smoothies,Soft Drink,Soup,Spring Roll,Sushi,Tacos,Tandoori,Tart,Tea,Thali,Tikka,Upma,Uttapam,Vada,Vegeta"&amp;"bles,Waffle,Wrap,Yoghurt"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T2 Z2 AC2">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N2">
       <formula1>"Kilogram,Grams,Meter,Centemeter"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H3">
-      <formula1>"Baklava,Bao,Barbecue,Biriyani,Bread,Burger,Cakes,Chaat,Cheesecakes,Chicken,Chicekn Wings,Chips,Coffee,Cookies,Crepes,Dal,Desserts,Dhokla,Dosa,Doughnuts,Eggs,Energy Drinks,Falafel,Fresh Juice,Fries,Ice Cream,Idli,Kabab,Kachori,Kulfi,Lassi,Meal Bowl,Mezze,M"&amp;"ithai,Momos,Mutton,Nachos,Noodles,Pakodas,Pancakes,Paneer,Pasta,Pastries,Pie,Pizza,Poha,Raita,Rice,Rolls,Roti,Salad,Samosa,Sandwich,Seafood,Shakes and Smoothies,Soft Drink,Soup,Spring Roll,Sushi,Tacos,Tandoori,Tart,Tea,Thali,Tikka,Upma,Uttapam,Vada,Vegeta"&amp;"bles,Waffle,Wrap,Yoghurt"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V2">
+      <formula1>"VEG,NONVEG,EGG"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="AD2"/>
-    <hyperlink r:id="rId2" ref="AD3"/>
+    <hyperlink r:id="rId1" ref="AE2"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>